--- a/시행착오/write/마지막8개값 합계.xlsx
+++ b/시행착오/write/마지막8개값 합계.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alanlee/Documents/GitHub/jpeg.reverse/시행착오/write/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dltjd\OneDrive\문서\GitHub\jpeg.reverse\시행착오\write\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{676809E9-B3B6-8843-9444-C6BCD5CCA09A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{076F0CAE-1323-41BC-9358-AFA1A9766862}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="17500" xr2:uid="{60CBDF12-C6B1-344E-86D2-061CD2E53833}"/>
+    <workbookView xWindow="1425" yWindow="2505" windowWidth="21915" windowHeight="10935" xr2:uid="{60CBDF12-C6B1-344E-86D2-061CD2E53833}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -609,7 +609,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -980,13 +980,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D36E5A2C-5FF4-C941-AE72-4D1452A94293}">
   <dimension ref="B1:HL3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
-      <selection activeCell="AG3" sqref="AG3"/>
+    <sheetView tabSelected="1" topLeftCell="GV1" workbookViewId="0">
+      <selection activeCell="HJ3" sqref="HJ3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="2:220">
+    <row r="1" spans="2:220" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -997,7 +997,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="2:220">
+    <row r="2" spans="2:220" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
@@ -1644,7 +1644,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="3" spans="2:220">
+    <row r="3" spans="2:220" x14ac:dyDescent="0.3">
       <c r="C3">
         <v>265</v>
       </c>
@@ -1737,6 +1737,555 @@
       </c>
       <c r="AG3">
         <v>24</v>
+      </c>
+      <c r="AH3">
+        <v>257</v>
+      </c>
+      <c r="AI3">
+        <v>181</v>
+      </c>
+      <c r="AJ3">
+        <v>133</v>
+      </c>
+      <c r="AK3">
+        <v>109</v>
+      </c>
+      <c r="AL3">
+        <v>166</v>
+      </c>
+      <c r="AM3">
+        <v>342</v>
+      </c>
+      <c r="AN3">
+        <v>108</v>
+      </c>
+      <c r="AO3">
+        <v>65</v>
+      </c>
+      <c r="AP3">
+        <v>240</v>
+      </c>
+      <c r="AQ3">
+        <v>44</v>
+      </c>
+      <c r="AR3">
+        <v>465</v>
+      </c>
+      <c r="AS3">
+        <v>56</v>
+      </c>
+      <c r="AT3">
+        <v>19</v>
+      </c>
+      <c r="AU3">
+        <v>404</v>
+      </c>
+      <c r="AV3">
+        <v>465</v>
+      </c>
+      <c r="AW3">
+        <v>369</v>
+      </c>
+      <c r="AX3">
+        <v>58</v>
+      </c>
+      <c r="AY3">
+        <v>123</v>
+      </c>
+      <c r="AZ3">
+        <v>554</v>
+      </c>
+      <c r="BC3">
+        <v>27</v>
+      </c>
+      <c r="BD3">
+        <v>171</v>
+      </c>
+      <c r="BE3">
+        <v>19</v>
+      </c>
+      <c r="BF3">
+        <v>76</v>
+      </c>
+      <c r="BG3">
+        <v>75</v>
+      </c>
+      <c r="BJ3">
+        <v>435</v>
+      </c>
+      <c r="BK3">
+        <v>1412</v>
+      </c>
+      <c r="BL3">
+        <v>441</v>
+      </c>
+      <c r="BM3">
+        <v>1666</v>
+      </c>
+      <c r="BN3">
+        <v>1033</v>
+      </c>
+      <c r="BO3">
+        <v>1510</v>
+      </c>
+      <c r="BP3">
+        <v>122</v>
+      </c>
+      <c r="BQ3">
+        <v>24</v>
+      </c>
+      <c r="BR3">
+        <v>120</v>
+      </c>
+      <c r="BS3">
+        <v>1473</v>
+      </c>
+      <c r="BT3">
+        <v>351</v>
+      </c>
+      <c r="BU3">
+        <v>43</v>
+      </c>
+      <c r="BV3">
+        <v>632</v>
+      </c>
+      <c r="BW3">
+        <v>284</v>
+      </c>
+      <c r="BX3">
+        <v>960</v>
+      </c>
+      <c r="BY3">
+        <v>359</v>
+      </c>
+      <c r="BZ3">
+        <v>317</v>
+      </c>
+      <c r="CA3">
+        <v>236</v>
+      </c>
+      <c r="CB3">
+        <v>331</v>
+      </c>
+      <c r="CC3">
+        <v>345</v>
+      </c>
+      <c r="CD3">
+        <v>82</v>
+      </c>
+      <c r="CE3">
+        <v>477</v>
+      </c>
+      <c r="CF3">
+        <v>615</v>
+      </c>
+      <c r="CG3">
+        <v>288</v>
+      </c>
+      <c r="CH3">
+        <v>228</v>
+      </c>
+      <c r="CI3">
+        <v>244</v>
+      </c>
+      <c r="CJ3">
+        <v>1013</v>
+      </c>
+      <c r="CK3">
+        <v>1033</v>
+      </c>
+      <c r="CL3">
+        <v>460</v>
+      </c>
+      <c r="CM3">
+        <v>290</v>
+      </c>
+      <c r="CN3">
+        <v>1287</v>
+      </c>
+      <c r="CO3">
+        <v>771</v>
+      </c>
+      <c r="CP3">
+        <v>127</v>
+      </c>
+      <c r="CQ3">
+        <v>1081</v>
+      </c>
+      <c r="CR3">
+        <v>679</v>
+      </c>
+      <c r="CS3">
+        <v>756</v>
+      </c>
+      <c r="CT3">
+        <v>1213</v>
+      </c>
+      <c r="CU3">
+        <v>174</v>
+      </c>
+      <c r="CV3">
+        <v>967</v>
+      </c>
+      <c r="CW3">
+        <v>773</v>
+      </c>
+      <c r="CX3">
+        <v>234</v>
+      </c>
+      <c r="CY3">
+        <v>345</v>
+      </c>
+      <c r="CZ3">
+        <v>1262</v>
+      </c>
+      <c r="DA3">
+        <v>57</v>
+      </c>
+      <c r="DB3">
+        <v>138</v>
+      </c>
+      <c r="DC3">
+        <v>863</v>
+      </c>
+      <c r="DD3">
+        <v>28</v>
+      </c>
+      <c r="DE3">
+        <v>508</v>
+      </c>
+      <c r="DF3">
+        <v>418</v>
+      </c>
+      <c r="DG3">
+        <v>81</v>
+      </c>
+      <c r="DH3">
+        <v>748</v>
+      </c>
+      <c r="DI3">
+        <v>530</v>
+      </c>
+      <c r="DJ3">
+        <v>992</v>
+      </c>
+      <c r="DK3">
+        <v>1096</v>
+      </c>
+      <c r="DL3">
+        <v>849</v>
+      </c>
+      <c r="DM3">
+        <v>1302</v>
+      </c>
+      <c r="DN3">
+        <v>51</v>
+      </c>
+      <c r="DO3">
+        <v>1197</v>
+      </c>
+      <c r="DP3">
+        <v>69</v>
+      </c>
+      <c r="DQ3">
+        <v>64</v>
+      </c>
+      <c r="DR3">
+        <v>375</v>
+      </c>
+      <c r="DS3">
+        <v>33</v>
+      </c>
+      <c r="DT3">
+        <v>22</v>
+      </c>
+      <c r="DU3">
+        <v>12</v>
+      </c>
+      <c r="DV3">
+        <v>132</v>
+      </c>
+      <c r="DW3">
+        <v>18</v>
+      </c>
+      <c r="DX3">
+        <v>380</v>
+      </c>
+      <c r="DY3">
+        <v>58</v>
+      </c>
+      <c r="DZ3">
+        <v>130</v>
+      </c>
+      <c r="EA3">
+        <v>135</v>
+      </c>
+      <c r="EB3">
+        <v>164</v>
+      </c>
+      <c r="EC3">
+        <v>120</v>
+      </c>
+      <c r="ED3">
+        <v>151</v>
+      </c>
+      <c r="EE3">
+        <v>123</v>
+      </c>
+      <c r="EF3">
+        <v>140</v>
+      </c>
+      <c r="EG3">
+        <v>118</v>
+      </c>
+      <c r="EH3">
+        <v>155</v>
+      </c>
+      <c r="EI3">
+        <v>83</v>
+      </c>
+      <c r="EJ3">
+        <v>107</v>
+      </c>
+      <c r="EK3">
+        <v>142</v>
+      </c>
+      <c r="EL3">
+        <v>148</v>
+      </c>
+      <c r="EM3">
+        <v>103</v>
+      </c>
+      <c r="EN3">
+        <v>140</v>
+      </c>
+      <c r="EO3">
+        <v>154</v>
+      </c>
+      <c r="EP3">
+        <v>149</v>
+      </c>
+      <c r="EQ3">
+        <v>129</v>
+      </c>
+      <c r="ER3">
+        <v>130</v>
+      </c>
+      <c r="ES3">
+        <v>185</v>
+      </c>
+      <c r="ET3">
+        <v>128</v>
+      </c>
+      <c r="EU3">
+        <v>202</v>
+      </c>
+      <c r="EV3">
+        <v>152</v>
+      </c>
+      <c r="EW3">
+        <v>70</v>
+      </c>
+      <c r="EX3">
+        <v>103</v>
+      </c>
+      <c r="EY3">
+        <v>158</v>
+      </c>
+      <c r="EZ3">
+        <v>211</v>
+      </c>
+      <c r="FA3">
+        <v>81</v>
+      </c>
+      <c r="FB3">
+        <v>69</v>
+      </c>
+      <c r="FC3">
+        <v>24</v>
+      </c>
+      <c r="FD3">
+        <v>178</v>
+      </c>
+      <c r="FE3">
+        <v>128</v>
+      </c>
+      <c r="FF3">
+        <v>176</v>
+      </c>
+      <c r="FG3">
+        <v>132</v>
+      </c>
+      <c r="FH3">
+        <v>87</v>
+      </c>
+      <c r="FI3">
+        <v>213</v>
+      </c>
+      <c r="FJ3">
+        <v>136</v>
+      </c>
+      <c r="FK3">
+        <v>211</v>
+      </c>
+      <c r="FL3">
+        <v>147</v>
+      </c>
+      <c r="FM3">
+        <v>169</v>
+      </c>
+      <c r="FN3">
+        <v>115</v>
+      </c>
+      <c r="FO3">
+        <v>162</v>
+      </c>
+      <c r="FP3">
+        <v>192</v>
+      </c>
+      <c r="FQ3">
+        <v>60</v>
+      </c>
+      <c r="FR3">
+        <v>68</v>
+      </c>
+      <c r="FS3">
+        <v>24</v>
+      </c>
+      <c r="FT3">
+        <v>128</v>
+      </c>
+      <c r="FU3">
+        <v>183</v>
+      </c>
+      <c r="FV3">
+        <v>88</v>
+      </c>
+      <c r="FW3">
+        <v>132</v>
+      </c>
+      <c r="FX3">
+        <v>27</v>
+      </c>
+      <c r="FY3">
+        <v>158</v>
+      </c>
+      <c r="FZ3">
+        <v>123</v>
+      </c>
+      <c r="GA3">
+        <v>112</v>
+      </c>
+      <c r="GB3">
+        <v>30</v>
+      </c>
+      <c r="GC3">
+        <v>77</v>
+      </c>
+      <c r="GD3">
+        <v>77</v>
+      </c>
+      <c r="GE3">
+        <v>86</v>
+      </c>
+      <c r="GF3">
+        <v>95</v>
+      </c>
+      <c r="GG3">
+        <v>108</v>
+      </c>
+      <c r="GH3">
+        <v>67</v>
+      </c>
+      <c r="GI3">
+        <v>387</v>
+      </c>
+      <c r="GJ3">
+        <v>138</v>
+      </c>
+      <c r="GK3">
+        <v>45</v>
+      </c>
+      <c r="GL3">
+        <v>272</v>
+      </c>
+      <c r="GM3">
+        <v>232</v>
+      </c>
+      <c r="GN3">
+        <v>10</v>
+      </c>
+      <c r="GO3">
+        <v>132</v>
+      </c>
+      <c r="GP3">
+        <v>25</v>
+      </c>
+      <c r="GQ3">
+        <v>202</v>
+      </c>
+      <c r="GR3">
+        <v>469</v>
+      </c>
+      <c r="GS3">
+        <v>93</v>
+      </c>
+      <c r="GT3">
+        <v>92</v>
+      </c>
+      <c r="GU3">
+        <v>94</v>
+      </c>
+      <c r="GV3">
+        <v>102</v>
+      </c>
+      <c r="GW3">
+        <v>6</v>
+      </c>
+      <c r="GX3">
+        <v>196</v>
+      </c>
+      <c r="GY3">
+        <v>130</v>
+      </c>
+      <c r="GZ3">
+        <v>221</v>
+      </c>
+      <c r="HA3">
+        <v>141</v>
+      </c>
+      <c r="HB3">
+        <v>5</v>
+      </c>
+      <c r="HC3">
+        <v>309</v>
+      </c>
+      <c r="HD3">
+        <v>451</v>
+      </c>
+      <c r="HE3">
+        <v>122</v>
+      </c>
+      <c r="HF3">
+        <v>58</v>
+      </c>
+      <c r="HG3">
+        <v>58</v>
+      </c>
+      <c r="HH3">
+        <v>489</v>
+      </c>
+      <c r="HI3">
+        <v>4096</v>
+      </c>
+      <c r="HJ3">
+        <v>483</v>
+      </c>
+      <c r="HK3">
+        <v>14</v>
+      </c>
+      <c r="HL3">
+        <v>473</v>
       </c>
     </row>
   </sheetData>

--- a/시행착오/write/마지막8개값 합계.xlsx
+++ b/시행착오/write/마지막8개값 합계.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dltjd\OneDrive\문서\GitHub\jpeg.reverse\시행착오\write\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{076F0CAE-1323-41BC-9358-AFA1A9766862}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F12C6B2-E952-49D7-BF24-6AA64A2A7F31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1425" yWindow="2505" windowWidth="21915" windowHeight="10935" xr2:uid="{60CBDF12-C6B1-344E-86D2-061CD2E53833}"/>
+    <workbookView xWindow="2445" yWindow="60" windowWidth="21915" windowHeight="6330" xr2:uid="{60CBDF12-C6B1-344E-86D2-061CD2E53833}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="173">
   <si>
     <t>img폴더</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -602,6 +602,18 @@
   </si>
   <si>
     <t>texmos3b.p512</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마지막8개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마지막4개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마지막2개</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -978,10 +990,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D36E5A2C-5FF4-C941-AE72-4D1452A94293}">
-  <dimension ref="B1:HL3"/>
+  <dimension ref="B1:HL5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="GV1" workbookViewId="0">
-      <selection activeCell="HJ3" sqref="HJ3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="HL5" sqref="HL5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -1645,6 +1657,9 @@
       </c>
     </row>
     <row r="3" spans="2:220" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>170</v>
+      </c>
       <c r="C3">
         <v>265</v>
       </c>
@@ -2286,6 +2301,1300 @@
       </c>
       <c r="HL3">
         <v>473</v>
+      </c>
+    </row>
+    <row r="4" spans="2:220" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C4">
+        <v>36</v>
+      </c>
+      <c r="D4">
+        <v>34</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>12</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="H4">
+        <v>41</v>
+      </c>
+      <c r="I4">
+        <v>29</v>
+      </c>
+      <c r="J4">
+        <v>9</v>
+      </c>
+      <c r="K4">
+        <v>19</v>
+      </c>
+      <c r="L4">
+        <v>14</v>
+      </c>
+      <c r="M4">
+        <v>7</v>
+      </c>
+      <c r="N4">
+        <v>20</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <v>10</v>
+      </c>
+      <c r="Q4">
+        <v>18</v>
+      </c>
+      <c r="R4">
+        <v>13</v>
+      </c>
+      <c r="S4">
+        <v>8</v>
+      </c>
+      <c r="T4">
+        <v>21</v>
+      </c>
+      <c r="U4">
+        <v>8</v>
+      </c>
+      <c r="V4">
+        <v>2</v>
+      </c>
+      <c r="W4">
+        <v>2</v>
+      </c>
+      <c r="X4">
+        <v>13</v>
+      </c>
+      <c r="Y4">
+        <v>19</v>
+      </c>
+      <c r="Z4">
+        <v>1</v>
+      </c>
+      <c r="AA4">
+        <v>7</v>
+      </c>
+      <c r="AB4">
+        <v>18</v>
+      </c>
+      <c r="AC4">
+        <v>10</v>
+      </c>
+      <c r="AD4">
+        <v>10</v>
+      </c>
+      <c r="AE4">
+        <v>5</v>
+      </c>
+      <c r="AF4">
+        <v>4</v>
+      </c>
+      <c r="AG4">
+        <v>3</v>
+      </c>
+      <c r="AH4">
+        <v>20</v>
+      </c>
+      <c r="AI4">
+        <v>28</v>
+      </c>
+      <c r="AJ4">
+        <v>22</v>
+      </c>
+      <c r="AK4">
+        <v>12</v>
+      </c>
+      <c r="AL4">
+        <v>23</v>
+      </c>
+      <c r="AM4">
+        <v>45</v>
+      </c>
+      <c r="AN4">
+        <v>13</v>
+      </c>
+      <c r="AO4">
+        <v>7</v>
+      </c>
+      <c r="AP4">
+        <v>6</v>
+      </c>
+      <c r="AQ4">
+        <v>6</v>
+      </c>
+      <c r="AR4">
+        <v>40</v>
+      </c>
+      <c r="AS4">
+        <v>7</v>
+      </c>
+      <c r="AT4">
+        <v>6</v>
+      </c>
+      <c r="AU4">
+        <v>43</v>
+      </c>
+      <c r="AV4">
+        <v>46</v>
+      </c>
+      <c r="AW4">
+        <v>28</v>
+      </c>
+      <c r="AX4">
+        <v>3</v>
+      </c>
+      <c r="AY4">
+        <v>12</v>
+      </c>
+      <c r="AZ4">
+        <v>76</v>
+      </c>
+      <c r="BC4">
+        <v>6</v>
+      </c>
+      <c r="BD4">
+        <v>46</v>
+      </c>
+      <c r="BE4">
+        <v>7</v>
+      </c>
+      <c r="BF4">
+        <v>11</v>
+      </c>
+      <c r="BG4">
+        <v>3</v>
+      </c>
+      <c r="BJ4">
+        <v>37</v>
+      </c>
+      <c r="BK4">
+        <v>145</v>
+      </c>
+      <c r="BL4">
+        <v>21</v>
+      </c>
+      <c r="BM4">
+        <v>145</v>
+      </c>
+      <c r="BN4">
+        <v>72</v>
+      </c>
+      <c r="BO4">
+        <v>92</v>
+      </c>
+      <c r="BP4">
+        <v>3</v>
+      </c>
+      <c r="BQ4">
+        <v>1</v>
+      </c>
+      <c r="BR4">
+        <v>12</v>
+      </c>
+      <c r="BS4">
+        <v>76</v>
+      </c>
+      <c r="BT4">
+        <v>9</v>
+      </c>
+      <c r="BU4">
+        <v>3</v>
+      </c>
+      <c r="BV4">
+        <v>33</v>
+      </c>
+      <c r="BW4">
+        <v>29</v>
+      </c>
+      <c r="BX4">
+        <v>73</v>
+      </c>
+      <c r="BY4">
+        <v>25</v>
+      </c>
+      <c r="BZ4">
+        <v>10</v>
+      </c>
+      <c r="CA4">
+        <v>16</v>
+      </c>
+      <c r="CB4">
+        <v>8</v>
+      </c>
+      <c r="CC4">
+        <v>15</v>
+      </c>
+      <c r="CD4">
+        <v>4</v>
+      </c>
+      <c r="CE4">
+        <v>30</v>
+      </c>
+      <c r="CF4">
+        <v>42</v>
+      </c>
+      <c r="CG4">
+        <v>25</v>
+      </c>
+      <c r="CH4">
+        <v>32</v>
+      </c>
+      <c r="CI4">
+        <v>17</v>
+      </c>
+      <c r="CJ4">
+        <v>64</v>
+      </c>
+      <c r="CK4">
+        <v>88</v>
+      </c>
+      <c r="CL4">
+        <v>24</v>
+      </c>
+      <c r="CM4">
+        <v>19</v>
+      </c>
+      <c r="CN4">
+        <v>82</v>
+      </c>
+      <c r="CO4">
+        <v>39</v>
+      </c>
+      <c r="CP4">
+        <v>6</v>
+      </c>
+      <c r="CQ4">
+        <v>34</v>
+      </c>
+      <c r="CR4">
+        <v>29</v>
+      </c>
+      <c r="CS4">
+        <v>39</v>
+      </c>
+      <c r="CT4">
+        <v>63</v>
+      </c>
+      <c r="CU4">
+        <v>7</v>
+      </c>
+      <c r="CV4">
+        <v>109</v>
+      </c>
+      <c r="CW4">
+        <v>73</v>
+      </c>
+      <c r="CX4">
+        <v>15</v>
+      </c>
+      <c r="CY4">
+        <v>48</v>
+      </c>
+      <c r="CZ4">
+        <v>87</v>
+      </c>
+      <c r="DA4">
+        <v>3</v>
+      </c>
+      <c r="DB4">
+        <v>6</v>
+      </c>
+      <c r="DC4">
+        <v>28</v>
+      </c>
+      <c r="DD4">
+        <v>6</v>
+      </c>
+      <c r="DE4">
+        <v>29</v>
+      </c>
+      <c r="DF4">
+        <v>21</v>
+      </c>
+      <c r="DG4">
+        <v>20</v>
+      </c>
+      <c r="DH4">
+        <v>65</v>
+      </c>
+      <c r="DI4">
+        <v>49</v>
+      </c>
+      <c r="DJ4">
+        <v>124</v>
+      </c>
+      <c r="DK4">
+        <v>71</v>
+      </c>
+      <c r="DL4">
+        <v>79</v>
+      </c>
+      <c r="DM4">
+        <v>262</v>
+      </c>
+      <c r="DN4">
+        <v>2</v>
+      </c>
+      <c r="DO4">
+        <v>89</v>
+      </c>
+      <c r="DP4">
+        <v>9</v>
+      </c>
+      <c r="DQ4">
+        <v>11</v>
+      </c>
+      <c r="DR4">
+        <v>53</v>
+      </c>
+      <c r="DS4">
+        <v>4</v>
+      </c>
+      <c r="DT4">
+        <v>1</v>
+      </c>
+      <c r="DU4">
+        <v>4</v>
+      </c>
+      <c r="DV4">
+        <v>15</v>
+      </c>
+      <c r="DW4">
+        <v>7</v>
+      </c>
+      <c r="DX4">
+        <v>49</v>
+      </c>
+      <c r="DY4">
+        <v>3</v>
+      </c>
+      <c r="DZ4">
+        <v>16</v>
+      </c>
+      <c r="EA4">
+        <v>6</v>
+      </c>
+      <c r="EB4">
+        <v>41</v>
+      </c>
+      <c r="EC4">
+        <v>22</v>
+      </c>
+      <c r="ED4">
+        <v>31</v>
+      </c>
+      <c r="EE4">
+        <v>13</v>
+      </c>
+      <c r="EF4">
+        <v>37</v>
+      </c>
+      <c r="EG4">
+        <v>27</v>
+      </c>
+      <c r="EH4">
+        <v>31</v>
+      </c>
+      <c r="EI4">
+        <v>6</v>
+      </c>
+      <c r="EJ4">
+        <v>17</v>
+      </c>
+      <c r="EK4">
+        <v>30</v>
+      </c>
+      <c r="EL4">
+        <v>27</v>
+      </c>
+      <c r="EM4">
+        <v>12</v>
+      </c>
+      <c r="EN4">
+        <v>28</v>
+      </c>
+      <c r="EO4">
+        <v>31</v>
+      </c>
+      <c r="EP4">
+        <v>28</v>
+      </c>
+      <c r="EQ4">
+        <v>18</v>
+      </c>
+      <c r="ER4">
+        <v>14</v>
+      </c>
+      <c r="ES4">
+        <v>34</v>
+      </c>
+      <c r="ET4">
+        <v>23</v>
+      </c>
+      <c r="EU4">
+        <v>38</v>
+      </c>
+      <c r="EV4">
+        <v>24</v>
+      </c>
+      <c r="EW4">
+        <v>3</v>
+      </c>
+      <c r="EX4">
+        <v>13</v>
+      </c>
+      <c r="EY4">
+        <v>27</v>
+      </c>
+      <c r="EZ4">
+        <v>29</v>
+      </c>
+      <c r="FA4">
+        <v>6</v>
+      </c>
+      <c r="FB4">
+        <v>6</v>
+      </c>
+      <c r="FC4">
+        <v>4</v>
+      </c>
+      <c r="FD4">
+        <v>31</v>
+      </c>
+      <c r="FE4">
+        <v>23</v>
+      </c>
+      <c r="FF4">
+        <v>37</v>
+      </c>
+      <c r="FG4">
+        <v>15</v>
+      </c>
+      <c r="FH4">
+        <v>10</v>
+      </c>
+      <c r="FI4">
+        <v>32</v>
+      </c>
+      <c r="FJ4">
+        <v>22</v>
+      </c>
+      <c r="FK4">
+        <v>40</v>
+      </c>
+      <c r="FL4">
+        <v>18</v>
+      </c>
+      <c r="FM4">
+        <v>27</v>
+      </c>
+      <c r="FN4">
+        <v>14</v>
+      </c>
+      <c r="FO4">
+        <v>29</v>
+      </c>
+      <c r="FP4">
+        <v>35</v>
+      </c>
+      <c r="FQ4">
+        <v>5</v>
+      </c>
+      <c r="FR4">
+        <v>5</v>
+      </c>
+      <c r="FS4">
+        <v>4</v>
+      </c>
+      <c r="FT4">
+        <v>14</v>
+      </c>
+      <c r="FU4">
+        <v>32</v>
+      </c>
+      <c r="FV4">
+        <v>10</v>
+      </c>
+      <c r="FW4">
+        <v>15</v>
+      </c>
+      <c r="FX4">
+        <v>3</v>
+      </c>
+      <c r="FY4">
+        <v>26</v>
+      </c>
+      <c r="FZ4">
+        <v>16</v>
+      </c>
+      <c r="GA4">
+        <v>18</v>
+      </c>
+      <c r="GB4">
+        <v>1</v>
+      </c>
+      <c r="GC4">
+        <v>10</v>
+      </c>
+      <c r="GD4">
+        <v>10</v>
+      </c>
+      <c r="GE4">
+        <v>8</v>
+      </c>
+      <c r="GF4">
+        <v>11</v>
+      </c>
+      <c r="GG4">
+        <v>10</v>
+      </c>
+      <c r="GH4">
+        <v>7</v>
+      </c>
+      <c r="GI4">
+        <v>17</v>
+      </c>
+      <c r="GJ4">
+        <v>23</v>
+      </c>
+      <c r="GK4">
+        <v>4</v>
+      </c>
+      <c r="GL4">
+        <v>5</v>
+      </c>
+      <c r="GM4">
+        <v>19</v>
+      </c>
+      <c r="GN4">
+        <v>1</v>
+      </c>
+      <c r="GO4">
+        <v>15</v>
+      </c>
+      <c r="GP4">
+        <v>4</v>
+      </c>
+      <c r="GQ4">
+        <v>15</v>
+      </c>
+      <c r="GR4">
+        <v>21</v>
+      </c>
+      <c r="GS4">
+        <v>5</v>
+      </c>
+      <c r="GT4">
+        <v>10</v>
+      </c>
+      <c r="GU4">
+        <v>10</v>
+      </c>
+      <c r="GV4">
+        <v>11</v>
+      </c>
+      <c r="GW4">
+        <v>1</v>
+      </c>
+      <c r="GX4">
+        <v>27</v>
+      </c>
+      <c r="GY4">
+        <v>10</v>
+      </c>
+      <c r="GZ4">
+        <v>33</v>
+      </c>
+      <c r="HA4">
+        <v>14</v>
+      </c>
+      <c r="HB4">
+        <v>1</v>
+      </c>
+      <c r="HC4">
+        <v>37</v>
+      </c>
+      <c r="HD4">
+        <v>71</v>
+      </c>
+      <c r="HE4">
+        <v>9</v>
+      </c>
+      <c r="HF4">
+        <v>16</v>
+      </c>
+      <c r="HG4">
+        <v>16</v>
+      </c>
+      <c r="HH4">
+        <v>87</v>
+      </c>
+      <c r="HI4">
+        <v>4096</v>
+      </c>
+      <c r="HJ4">
+        <v>71</v>
+      </c>
+      <c r="HK4">
+        <v>4</v>
+      </c>
+      <c r="HL4">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="2:220" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>172</v>
+      </c>
+      <c r="C5">
+        <v>7</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>4</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>12</v>
+      </c>
+      <c r="I5">
+        <v>2</v>
+      </c>
+      <c r="J5">
+        <v>3</v>
+      </c>
+      <c r="K5">
+        <v>7</v>
+      </c>
+      <c r="L5">
+        <v>2</v>
+      </c>
+      <c r="M5">
+        <v>2</v>
+      </c>
+      <c r="N5">
+        <v>10</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="P5">
+        <v>3</v>
+      </c>
+      <c r="Q5">
+        <v>6</v>
+      </c>
+      <c r="R5">
+        <v>7</v>
+      </c>
+      <c r="S5">
+        <v>3</v>
+      </c>
+      <c r="T5">
+        <v>5</v>
+      </c>
+      <c r="U5">
+        <v>3</v>
+      </c>
+      <c r="V5">
+        <v>1</v>
+      </c>
+      <c r="W5">
+        <v>1</v>
+      </c>
+      <c r="X5">
+        <v>2</v>
+      </c>
+      <c r="Y5">
+        <v>8</v>
+      </c>
+      <c r="Z5">
+        <v>1</v>
+      </c>
+      <c r="AA5">
+        <v>1</v>
+      </c>
+      <c r="AB5">
+        <v>3</v>
+      </c>
+      <c r="AC5">
+        <v>5</v>
+      </c>
+      <c r="AD5">
+        <v>2</v>
+      </c>
+      <c r="AE5">
+        <v>2</v>
+      </c>
+      <c r="AF5">
+        <v>1</v>
+      </c>
+      <c r="AG5">
+        <v>2</v>
+      </c>
+      <c r="AH5">
+        <v>1</v>
+      </c>
+      <c r="AI5">
+        <v>7</v>
+      </c>
+      <c r="AJ5">
+        <v>5</v>
+      </c>
+      <c r="AK5">
+        <v>2</v>
+      </c>
+      <c r="AL5">
+        <v>4</v>
+      </c>
+      <c r="AM5">
+        <v>10</v>
+      </c>
+      <c r="AN5">
+        <v>5</v>
+      </c>
+      <c r="AO5">
+        <v>2</v>
+      </c>
+      <c r="AP5">
+        <v>1</v>
+      </c>
+      <c r="AQ5">
+        <v>2</v>
+      </c>
+      <c r="AR5">
+        <v>6</v>
+      </c>
+      <c r="AS5">
+        <v>3</v>
+      </c>
+      <c r="AT5">
+        <v>2</v>
+      </c>
+      <c r="AU5">
+        <v>7</v>
+      </c>
+      <c r="AV5">
+        <v>6</v>
+      </c>
+      <c r="AW5">
+        <v>2</v>
+      </c>
+      <c r="AX5">
+        <v>1</v>
+      </c>
+      <c r="AY5">
+        <v>2</v>
+      </c>
+      <c r="AZ5">
+        <v>19</v>
+      </c>
+      <c r="BC5">
+        <v>2</v>
+      </c>
+      <c r="BD5">
+        <v>10</v>
+      </c>
+      <c r="BE5">
+        <v>2</v>
+      </c>
+      <c r="BF5">
+        <v>4</v>
+      </c>
+      <c r="BG5">
+        <v>1</v>
+      </c>
+      <c r="BJ5">
+        <v>8</v>
+      </c>
+      <c r="BK5">
+        <v>22</v>
+      </c>
+      <c r="BL5">
+        <v>2</v>
+      </c>
+      <c r="BM5">
+        <v>17</v>
+      </c>
+      <c r="BN5">
+        <v>7</v>
+      </c>
+      <c r="BO5">
+        <v>13</v>
+      </c>
+      <c r="BP5">
+        <v>1</v>
+      </c>
+      <c r="BQ5">
+        <v>1</v>
+      </c>
+      <c r="BR5">
+        <v>1</v>
+      </c>
+      <c r="BS5">
+        <v>10</v>
+      </c>
+      <c r="BT5">
+        <v>1</v>
+      </c>
+      <c r="BU5">
+        <v>1</v>
+      </c>
+      <c r="BV5">
+        <v>4</v>
+      </c>
+      <c r="BW5">
+        <v>7</v>
+      </c>
+      <c r="BX5">
+        <v>10</v>
+      </c>
+      <c r="BY5">
+        <v>3</v>
+      </c>
+      <c r="BZ5">
+        <v>2</v>
+      </c>
+      <c r="CA5">
+        <v>3</v>
+      </c>
+      <c r="CB5">
+        <v>2</v>
+      </c>
+      <c r="CC5">
+        <v>2</v>
+      </c>
+      <c r="CD5">
+        <v>2</v>
+      </c>
+      <c r="CE5">
+        <v>5</v>
+      </c>
+      <c r="CF5">
+        <v>5</v>
+      </c>
+      <c r="CG5">
+        <v>4</v>
+      </c>
+      <c r="CH5">
+        <v>10</v>
+      </c>
+      <c r="CI5">
+        <v>3</v>
+      </c>
+      <c r="CJ5">
+        <v>8</v>
+      </c>
+      <c r="CK5">
+        <v>11</v>
+      </c>
+      <c r="CL5">
+        <v>2</v>
+      </c>
+      <c r="CM5">
+        <v>6</v>
+      </c>
+      <c r="CN5">
+        <v>7</v>
+      </c>
+      <c r="CO5">
+        <v>4</v>
+      </c>
+      <c r="CP5">
+        <v>1</v>
+      </c>
+      <c r="CQ5">
+        <v>2</v>
+      </c>
+      <c r="CR5">
+        <v>2</v>
+      </c>
+      <c r="CS5">
+        <v>3</v>
+      </c>
+      <c r="CT5">
+        <v>9</v>
+      </c>
+      <c r="CU5">
+        <v>1</v>
+      </c>
+      <c r="CV5">
+        <v>11</v>
+      </c>
+      <c r="CW5">
+        <v>7</v>
+      </c>
+      <c r="CX5">
+        <v>1</v>
+      </c>
+      <c r="CY5">
+        <v>9</v>
+      </c>
+      <c r="CZ5">
+        <v>10</v>
+      </c>
+      <c r="DA5">
+        <v>1</v>
+      </c>
+      <c r="DB5">
+        <v>2</v>
+      </c>
+      <c r="DC5">
+        <v>2</v>
+      </c>
+      <c r="DD5">
+        <v>3</v>
+      </c>
+      <c r="DE5">
+        <v>5</v>
+      </c>
+      <c r="DF5">
+        <v>3</v>
+      </c>
+      <c r="DG5">
+        <v>7</v>
+      </c>
+      <c r="DH5">
+        <v>11</v>
+      </c>
+      <c r="DI5">
+        <v>9</v>
+      </c>
+      <c r="DJ5">
+        <v>15</v>
+      </c>
+      <c r="DK5">
+        <v>4</v>
+      </c>
+      <c r="DL5">
+        <v>11</v>
+      </c>
+      <c r="DM5">
+        <v>49</v>
+      </c>
+      <c r="DN5">
+        <v>1</v>
+      </c>
+      <c r="DO5">
+        <v>12</v>
+      </c>
+      <c r="DP5">
+        <v>2</v>
+      </c>
+      <c r="DQ5">
+        <v>3</v>
+      </c>
+      <c r="DR5">
+        <v>10</v>
+      </c>
+      <c r="DS5">
+        <v>3</v>
+      </c>
+      <c r="DT5">
+        <v>1</v>
+      </c>
+      <c r="DU5">
+        <v>1</v>
+      </c>
+      <c r="DV5">
+        <v>6</v>
+      </c>
+      <c r="DW5">
+        <v>3</v>
+      </c>
+      <c r="DX5">
+        <v>7</v>
+      </c>
+      <c r="DY5">
+        <v>1</v>
+      </c>
+      <c r="DZ5">
+        <v>5</v>
+      </c>
+      <c r="EA5">
+        <v>1</v>
+      </c>
+      <c r="EB5">
+        <v>12</v>
+      </c>
+      <c r="EC5">
+        <v>6</v>
+      </c>
+      <c r="ED5">
+        <v>5</v>
+      </c>
+      <c r="EE5">
+        <v>2</v>
+      </c>
+      <c r="EF5">
+        <v>11</v>
+      </c>
+      <c r="EG5">
+        <v>4</v>
+      </c>
+      <c r="EH5">
+        <v>3</v>
+      </c>
+      <c r="EI5">
+        <v>1</v>
+      </c>
+      <c r="EJ5">
+        <v>4</v>
+      </c>
+      <c r="EK5">
+        <v>3</v>
+      </c>
+      <c r="EL5">
+        <v>5</v>
+      </c>
+      <c r="EM5">
+        <v>3</v>
+      </c>
+      <c r="EN5">
+        <v>9</v>
+      </c>
+      <c r="EO5">
+        <v>8</v>
+      </c>
+      <c r="EP5">
+        <v>11</v>
+      </c>
+      <c r="EQ5">
+        <v>2</v>
+      </c>
+      <c r="ER5">
+        <v>4</v>
+      </c>
+      <c r="ES5">
+        <v>7</v>
+      </c>
+      <c r="ET5">
+        <v>8</v>
+      </c>
+      <c r="EU5">
+        <v>14</v>
+      </c>
+      <c r="EV5">
+        <v>3</v>
+      </c>
+      <c r="EW5">
+        <v>1</v>
+      </c>
+      <c r="EX5">
+        <v>2</v>
+      </c>
+      <c r="EY5">
+        <v>4</v>
+      </c>
+      <c r="EZ5">
+        <v>6</v>
+      </c>
+      <c r="FA5">
+        <v>1</v>
+      </c>
+      <c r="FB5">
+        <v>1</v>
+      </c>
+      <c r="FC5">
+        <v>1</v>
+      </c>
+      <c r="FD5">
+        <v>4</v>
+      </c>
+      <c r="FE5">
+        <v>6</v>
+      </c>
+      <c r="FF5">
+        <v>9</v>
+      </c>
+      <c r="FG5">
+        <v>6</v>
+      </c>
+      <c r="FH5">
+        <v>2</v>
+      </c>
+      <c r="FI5">
+        <v>7</v>
+      </c>
+      <c r="FJ5">
+        <v>7</v>
+      </c>
+      <c r="FK5">
+        <v>14</v>
+      </c>
+      <c r="FL5">
+        <v>4</v>
+      </c>
+      <c r="FM5">
+        <v>7</v>
+      </c>
+      <c r="FN5">
+        <v>4</v>
+      </c>
+      <c r="FO5">
+        <v>4</v>
+      </c>
+      <c r="FP5">
+        <v>7</v>
+      </c>
+      <c r="FQ5">
+        <v>1</v>
+      </c>
+      <c r="FR5">
+        <v>2</v>
+      </c>
+      <c r="FS5">
+        <v>1</v>
+      </c>
+      <c r="FT5">
+        <v>2</v>
+      </c>
+      <c r="FU5">
+        <v>5</v>
+      </c>
+      <c r="FV5">
+        <v>1</v>
+      </c>
+      <c r="FW5">
+        <v>6</v>
+      </c>
+      <c r="FX5">
+        <v>3</v>
+      </c>
+      <c r="FY5">
+        <v>6</v>
+      </c>
+      <c r="FZ5">
+        <v>2</v>
+      </c>
+      <c r="GA5">
+        <v>4</v>
+      </c>
+      <c r="GB5">
+        <v>1</v>
+      </c>
+      <c r="GC5">
+        <v>4</v>
+      </c>
+      <c r="GD5">
+        <v>1</v>
+      </c>
+      <c r="GE5">
+        <v>2</v>
+      </c>
+      <c r="GF5">
+        <v>1</v>
+      </c>
+      <c r="GG5">
+        <v>3</v>
+      </c>
+      <c r="GH5">
+        <v>3</v>
+      </c>
+      <c r="GI5">
+        <v>3</v>
+      </c>
+      <c r="GJ5">
+        <v>4</v>
+      </c>
+      <c r="GK5">
+        <v>2</v>
+      </c>
+      <c r="GL5">
+        <v>1</v>
+      </c>
+      <c r="GM5">
+        <v>6</v>
+      </c>
+      <c r="GN5">
+        <v>1</v>
+      </c>
+      <c r="GO5">
+        <v>3</v>
+      </c>
+      <c r="GP5">
+        <v>1</v>
+      </c>
+      <c r="GQ5">
+        <v>5</v>
+      </c>
+      <c r="GR5">
+        <v>4</v>
+      </c>
+      <c r="GS5">
+        <v>1</v>
+      </c>
+      <c r="GT5">
+        <v>3</v>
+      </c>
+      <c r="GU5">
+        <v>4</v>
+      </c>
+      <c r="GV5">
+        <v>4</v>
+      </c>
+      <c r="GW5">
+        <v>1</v>
+      </c>
+      <c r="GX5">
+        <v>5</v>
+      </c>
+      <c r="GY5">
+        <v>2</v>
+      </c>
+      <c r="GZ5">
+        <v>7</v>
+      </c>
+      <c r="HA5">
+        <v>3</v>
+      </c>
+      <c r="HB5">
+        <v>1</v>
+      </c>
+      <c r="HC5">
+        <v>11</v>
+      </c>
+      <c r="HD5">
+        <v>23</v>
+      </c>
+      <c r="HE5">
+        <v>2</v>
+      </c>
+      <c r="HF5">
+        <v>5</v>
+      </c>
+      <c r="HG5">
+        <v>5</v>
+      </c>
+      <c r="HH5">
+        <v>21</v>
+      </c>
+      <c r="HI5">
+        <v>4096</v>
+      </c>
+      <c r="HJ5">
+        <v>19</v>
+      </c>
+      <c r="HK5">
+        <v>1</v>
+      </c>
+      <c r="HL5">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
